--- a/查询.xlsx
+++ b/查询.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\Git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{534AA2A0-9F03-4960-B96D-A43BF6F08598}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B62C978-58A5-45B9-A257-DBEB330FB10E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
   <si>
     <t>git add</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -221,12 +221,85 @@
     <t>查看修改</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>删除上传Github文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">git rm --cached -r </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>useless</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（删除请求）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+git commit -m "remove directory from remote repository"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（删除操作）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+git push</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（删除确定）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -272,6 +345,13 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -293,7 +373,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -308,6 +388,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -588,16 +671,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18" style="2" customWidth="1"/>
+    <col min="2" max="2" width="70.625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -770,6 +853,14 @@
       </c>
       <c r="B24" s="2" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
